--- a/answerExam.xlsx
+++ b/answerExam.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanchatpookhuntod/PycharmProjects/pythonProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\checkExam\checkExam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFB908F-B8F2-3243-9DB8-1C9BC48C994A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="820" windowWidth="27580" windowHeight="16440" xr2:uid="{218A0164-38AE-D24E-AA22-1F33EBCB9A00}"/>
+    <workbookView xWindow="300" yWindow="825" windowWidth="27585" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -45,17 +44,20 @@
     <t>c</t>
   </si>
   <si>
-    <t>answers</t>
+    <t>d</t>
   </si>
   <si>
-    <t>d</t>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>Answers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -93,7 +95,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,269 +406,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD992E6E-D220-3046-8565-66E931BA37EE}">
-  <dimension ref="A1:A51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
